--- a/data/trans_orig/P36BPD05_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD05_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>190074</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>166984</v>
+        <v>167687</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>215452</v>
+        <v>215779</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3833092808447535</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3367452940303777</v>
+        <v>0.3381617653903551</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4344875176958178</v>
+        <v>0.4351452704643176</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>300</v>
@@ -762,19 +762,19 @@
         <v>237352</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>213474</v>
+        <v>214415</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>260976</v>
+        <v>259366</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3816630621248374</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3432683367066579</v>
+        <v>0.34478116677756</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4196513268200073</v>
+        <v>0.417061584969514</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>474</v>
@@ -783,19 +783,19 @@
         <v>427426</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>395797</v>
+        <v>393074</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>460746</v>
+        <v>459905</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3823933782794428</v>
+        <v>0.3823933782794426</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3540963986793533</v>
+        <v>0.3516606057613511</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4122028061402785</v>
+        <v>0.4114504247139825</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>305803</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>280425</v>
+        <v>280098</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>328893</v>
+        <v>328190</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6166907191552465</v>
+        <v>0.6166907191552466</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5655124823041821</v>
+        <v>0.5648547295356824</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6632547059696221</v>
+        <v>0.6618382346096449</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>558</v>
@@ -833,19 +833,19 @@
         <v>384536</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>360912</v>
+        <v>362522</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>408414</v>
+        <v>407473</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6183369378751625</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5803486731799925</v>
+        <v>0.5829384150304862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6567316632933422</v>
+        <v>0.6552188332224402</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>836</v>
@@ -854,19 +854,19 @@
         <v>690339</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>657019</v>
+        <v>657860</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>721968</v>
+        <v>724691</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6176066217205574</v>
+        <v>0.6176066217205572</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5877971938597214</v>
+        <v>0.5885495752860176</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6459036013206468</v>
+        <v>0.6483393942386488</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>402157</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>363479</v>
+        <v>368025</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>436890</v>
+        <v>438106</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4198612205554499</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.379481046044035</v>
+        <v>0.3842270574059659</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4561230955616055</v>
+        <v>0.457393284048033</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>551</v>
@@ -979,19 +979,19 @@
         <v>413692</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>386888</v>
+        <v>384487</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>445832</v>
+        <v>444249</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3709833652793026</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3469461991678566</v>
+        <v>0.3447934691608767</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3998053306332574</v>
+        <v>0.3983855819375867</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>911</v>
@@ -1000,19 +1000,19 @@
         <v>815849</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>774091</v>
+        <v>774623</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>867208</v>
+        <v>864128</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3935679435898188</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3734239604261838</v>
+        <v>0.3736803419603293</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.418343464213536</v>
+        <v>0.4168579344674168</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>555676</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>520943</v>
+        <v>519727</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>594354</v>
+        <v>589808</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5801387794445502</v>
+        <v>0.5801387794445501</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5438769044383948</v>
+        <v>0.5426067159519672</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.620518953955965</v>
+        <v>0.6157729425940343</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1055</v>
@@ -1050,19 +1050,19 @@
         <v>701431</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>669291</v>
+        <v>670874</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>728235</v>
+        <v>730636</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6290166347206975</v>
+        <v>0.6290166347206974</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6001946693667426</v>
+        <v>0.6016144180624133</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6530538008321436</v>
+        <v>0.6552065308391231</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1602</v>
@@ -1071,19 +1071,19 @@
         <v>1257107</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1205748</v>
+        <v>1208828</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1298865</v>
+        <v>1298333</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6064320564101813</v>
+        <v>0.6064320564101812</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.581656535786464</v>
+        <v>0.5831420655325833</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6265760395738161</v>
+        <v>0.6263196580396705</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>329852</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>297460</v>
+        <v>294621</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>362584</v>
+        <v>363030</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3152020822764727</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.284248499173193</v>
+        <v>0.2815358548938445</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3464795588514761</v>
+        <v>0.346905988938859</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>312</v>
@@ -1196,19 +1196,19 @@
         <v>234216</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>210355</v>
+        <v>210438</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>257259</v>
+        <v>262493</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.224286666622881</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2014375701672808</v>
+        <v>0.2015172125993497</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2463528007506398</v>
+        <v>0.2513647847285871</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>619</v>
@@ -1217,19 +1217,19 @@
         <v>564068</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>522045</v>
+        <v>525282</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>605213</v>
+        <v>611158</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2697924171537399</v>
+        <v>0.2697924171537398</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.249692907543051</v>
+        <v>0.2512408660022186</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.289471636505004</v>
+        <v>0.2923152237560706</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>716627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>683895</v>
+        <v>683449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>749019</v>
+        <v>751858</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6847979177235273</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6535204411485235</v>
+        <v>0.6530940110611408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7157515008268068</v>
+        <v>0.7184641451061553</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1199</v>
@@ -1267,19 +1267,19 @@
         <v>810054</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>787011</v>
+        <v>781777</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>833915</v>
+        <v>833832</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7757133333771189</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7536471992493601</v>
+        <v>0.7486352152714126</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.798562429832719</v>
+        <v>0.7984827874006503</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1921</v>
@@ -1288,19 +1288,19 @@
         <v>1526681</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1485536</v>
+        <v>1479591</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1568704</v>
+        <v>1565467</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7302075828462601</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7105283634949959</v>
+        <v>0.7076847762439293</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7503070924569489</v>
+        <v>0.7487591339977814</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>200937</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>172011</v>
+        <v>173136</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>231473</v>
+        <v>235111</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2063525335157098</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1766474207044778</v>
+        <v>0.1778026407900299</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2377119124900139</v>
+        <v>0.2414474147155485</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>193</v>
@@ -1413,19 +1413,19 @@
         <v>146143</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>126195</v>
+        <v>128622</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>169401</v>
+        <v>168172</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1615650185388205</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1395121052203485</v>
+        <v>0.1421959507396065</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1872772774443975</v>
+        <v>0.1859189151697417</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>365</v>
@@ -1434,19 +1434,19 @@
         <v>347080</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>312674</v>
+        <v>310414</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>385711</v>
+        <v>386701</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1847839450007751</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1664664118623815</v>
+        <v>0.1652631643600719</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2053509949349133</v>
+        <v>0.2058781312176463</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>772819</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>742283</v>
+        <v>738645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>801745</v>
+        <v>800620</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7936474664842902</v>
+        <v>0.7936474664842901</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7622880875099861</v>
+        <v>0.7585525852844519</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8233525792955223</v>
+        <v>0.8221973592099702</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1121</v>
@@ -1484,19 +1484,19 @@
         <v>758401</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>735143</v>
+        <v>736372</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>778349</v>
+        <v>775922</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8384349814611795</v>
+        <v>0.8384349814611793</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8127227225556025</v>
+        <v>0.8140810848302582</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8604878947796517</v>
+        <v>0.8578040492603936</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1893</v>
@@ -1505,19 +1505,19 @@
         <v>1531220</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1492589</v>
+        <v>1491599</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1565626</v>
+        <v>1567886</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.815216054999225</v>
+        <v>0.8152160549992249</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7946490050650867</v>
+        <v>0.7941218687823537</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8335335881376186</v>
+        <v>0.8347368356399277</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>1123021</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1062951</v>
+        <v>1056877</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1185414</v>
+        <v>1185604</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3232695272276335</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3059780492772662</v>
+        <v>0.3042294532627214</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3412297741220987</v>
+        <v>0.3412846239344614</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1356</v>
@@ -1630,19 +1630,19 @@
         <v>1031402</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>986202</v>
+        <v>984536</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1086232</v>
+        <v>1083378</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2798294125877678</v>
+        <v>0.2798294125877679</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2675661557515923</v>
+        <v>0.2671141348757756</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2947052178293123</v>
+        <v>0.2939308279321121</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2369</v>
@@ -1651,19 +1651,19 @@
         <v>2154423</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2077284</v>
+        <v>2077749</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2237932</v>
+        <v>2243399</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3009067083523362</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.290132771553071</v>
+        <v>0.2901977808813013</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3125704365726237</v>
+        <v>0.3133339559796037</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2350925</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2288532</v>
+        <v>2288342</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2410995</v>
+        <v>2417069</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6767304727723665</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6587702258779011</v>
+        <v>0.6587153760655389</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6940219507227336</v>
+        <v>0.6957705467372785</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3933</v>
@@ -1701,19 +1701,19 @@
         <v>2654423</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2599593</v>
+        <v>2602447</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2699623</v>
+        <v>2701289</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7201705874122319</v>
+        <v>0.7201705874122321</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7052947821706876</v>
+        <v>0.706069172067888</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7324338442484075</v>
+        <v>0.7328858651242244</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6252</v>
@@ -1722,19 +1722,19 @@
         <v>5005347</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4921838</v>
+        <v>4916371</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5082486</v>
+        <v>5082021</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6990932916476639</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6874295634273764</v>
+        <v>0.6866660440203967</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7098672284469296</v>
+        <v>0.709802219118699</v>
       </c>
     </row>
     <row r="18">
